--- a/biology/Botanique/Sapindaceae/Sapindaceae.xlsx
+++ b/biology/Botanique/Sapindaceae/Sapindaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Sapindaceae (Sapindacées) regroupe des plantes dicotylédones ; elle comprend environ 2 000 espèces réparties en 140 genres.
 Elle est représentée dans le monde entier. Les Sapindaceae sont des espèces ligneuses, le plus souvent des arbres ou des arbustes, parfois des lianes.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille tient son nom du genre Sapindus lui-même issu du latin sāpo sāpōnis, savon et indĭcus indien (indĭcus indigo) savon indien[1], l'« arbre à savon ». Ce dernier produit en effet des fruits utilisés comme « noix de lavage » en raison de leur pouvoir détergent dû à la présence importante de saponines. De nombreuses autres espèces de la famille des Sapindacées contiennent aussi des concentrations marquées de saponines qui leur confèrent de plus une certaine toxicité pouvant parfois ouvrir à des usages thérapeutiques. Les extraits de marron d'Inde (Aesculus hippocastanum) ont été ainsi utilisés pour traiter des problèmes de circulation sanguine du fait des effets vaso-constricteurs des saponines.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille tient son nom du genre Sapindus lui-même issu du latin sāpo sāpōnis, savon et indĭcus indien (indĭcus indigo) savon indien, l'« arbre à savon ». Ce dernier produit en effet des fruits utilisés comme « noix de lavage » en raison de leur pouvoir détergent dû à la présence importante de saponines. De nombreuses autres espèces de la famille des Sapindacées contiennent aussi des concentrations marquées de saponines qui leur confèrent de plus une certaine toxicité pouvant parfois ouvrir à des usages thérapeutiques. Les extraits de marron d'Inde (Aesculus hippocastanum) ont été ainsi utilisés pour traiter des problèmes de circulation sanguine du fait des effets vaso-constricteurs des saponines.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Caractères</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur des Sapindaceae comporte fondamentalement 3 carpelles. Quelques espèces en possèdent plus (jusqu'à 8) mais chez de nombreuses autres il peut n'en subsister fonctionnellement que 2 comme c'est notamment le cas chez les érables et chez le litchi.
 Les carpelles sont attachés autour de l'axe de la fleur, ils forment un gynécée à placentation axile. La soudure est même souvent incomplète ce qui produit alors un fruit caractéristique d'aspect triple ou le cas échéant double, comme la samare à deux ailes des érables.
@@ -581,7 +597,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec le rattachement des érables aux Sapindaceae cette famille compte maintenant des espèces de première importance pour l'ornement dans les régions tempérées, pour la production de bois de qualité et pour la confection du sirop d'érable, extrait des érables à sucre (Acer saccharum et Acer nigrum).
 </t>
@@ -612,7 +630,9 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les classifications phylogénétiques récentes (classification APG II), les Sapindaceae incluent désormais aussi les érables ainsi que les marronniers et apparentés, qui, selon les classifications classiques, appartenaient respectivement aux familles des Aceraceae et des Hippocastanaceae.
 </t>
@@ -645,10 +665,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon la classification classique
-La classification classique de Cronquist (1981)[2] classe dans cette famille les genres :
-Alectryon, Allophylus, Allosanthus, Amesiodendron, Aporrhiza, Arfeuillea, Arytera, Atalaya, Athyana, Averrhoidium, Beguea, Bizonula, Blighia, Blighiopsis, Blomia, Bridgesia, Camptolepis, Cardiospermum, Castanospora, Chonopetalum, Chouxia, Chytranthus, Conchopetalum, Cossinia, Cubilia, Cupania, Cupaniopsis, Deinbollia, Delavaya, Diatenopteryx, Dictyoneura, Dilodendron, Dimocarpus, Diploglottis, Diplokelepa, Diplopeltis, Distichostemon, Dodonaea, Doratoxylon, Elattostachys, Eriocoelum, Erythrophysa, Euchorium, Euphorianthus, Eurycorymbus, Exothea, Filicium, Ganophyllum, Glenniea, Gloeocarpus, Gongrodiscus, Gongrospermum, Guindilia, Guioa, Handeliodendron, Haplocoelum, Harpullia, Hippobromus, Hornea, Houssayanthus, Hypelate, Hypseloderma, Jagera, Koelreuteria, Laccodiscus, Lecaniodiscus, Lepiderema, Lepidocupania[3], Lepidopetalum, Lepisanthes, Litchi, Llagunoa, Lophostigma, Loxodiscus, Lychnodiscus, Macphersonia, Magonia, Majidea, Matayba, Melicoccus, Mischocarpus, Molinaea, Neoarytera[3], Neotina, Nephelium, Otonephelium, Pancovia, Pappea, Paranephelium, Paullinia, Pavieasia, Pentascyphus, Phyllotrichum, Placodiscus, Plagioscyphus, Podonephelium, Pometia, Porocystis, Pseudima, Pseudopancovia, Pseudopteris, Radlkofera, Rhysotoechia, Sapindus, Sarcopteryx, Sarcotoechia, Schleichera, Scyphonychium, Serjania, Sinoradlkofera, Sisyrolepis, Smelophyllum, Stadmania, Stocksia, Storthocalyx, Synima, Talisia, Thinouia, Thouinia, Thouinidium, Tina, Tinopsis, Toechima, Toulicia, Trigonachras, Tripterodendron, Tristira, Tristiropsis, Tsingya, Ungnadia, Urvillea, Vouarana, Xanthoceras, Xeropspermum, Zanha, Zollingeria.
-Selon DELTA Angio           (22 juin 2010)[4] :
+          <t>Selon la classification classique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) classe dans cette famille les genres :
+Alectryon, Allophylus, Allosanthus, Amesiodendron, Aporrhiza, Arfeuillea, Arytera, Atalaya, Athyana, Averrhoidium, Beguea, Bizonula, Blighia, Blighiopsis, Blomia, Bridgesia, Camptolepis, Cardiospermum, Castanospora, Chonopetalum, Chouxia, Chytranthus, Conchopetalum, Cossinia, Cubilia, Cupania, Cupaniopsis, Deinbollia, Delavaya, Diatenopteryx, Dictyoneura, Dilodendron, Dimocarpus, Diploglottis, Diplokelepa, Diplopeltis, Distichostemon, Dodonaea, Doratoxylon, Elattostachys, Eriocoelum, Erythrophysa, Euchorium, Euphorianthus, Eurycorymbus, Exothea, Filicium, Ganophyllum, Glenniea, Gloeocarpus, Gongrodiscus, Gongrospermum, Guindilia, Guioa, Handeliodendron, Haplocoelum, Harpullia, Hippobromus, Hornea, Houssayanthus, Hypelate, Hypseloderma, Jagera, Koelreuteria, Laccodiscus, Lecaniodiscus, Lepiderema, Lepidocupania, Lepidopetalum, Lepisanthes, Litchi, Llagunoa, Lophostigma, Loxodiscus, Lychnodiscus, Macphersonia, Magonia, Majidea, Matayba, Melicoccus, Mischocarpus, Molinaea, Neoarytera, Neotina, Nephelium, Otonephelium, Pancovia, Pappea, Paranephelium, Paullinia, Pavieasia, Pentascyphus, Phyllotrichum, Placodiscus, Plagioscyphus, Podonephelium, Pometia, Porocystis, Pseudima, Pseudopancovia, Pseudopteris, Radlkofera, Rhysotoechia, Sapindus, Sarcopteryx, Sarcotoechia, Schleichera, Scyphonychium, Serjania, Sinoradlkofera, Sisyrolepis, Smelophyllum, Stadmania, Stocksia, Storthocalyx, Synima, Talisia, Thinouia, Thouinia, Thouinidium, Tina, Tinopsis, Toechima, Toulicia, Trigonachras, Tripterodendron, Tristira, Tristiropsis, Tsingya, Ungnadia, Urvillea, Vouarana, Xanthoceras, Xeropspermum, Zanha, Zollingeria.
+Selon DELTA Angio           (22 juin 2010) :
 Alectryon
 Allophylus
 Allosanthus
@@ -783,13 +808,48 @@
 Xeropspermum
 Zanha
 Zollingeria
-Selon la classification phylogénétique
-La classification phylogénétique y ajoute :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sapindaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sapindaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Selon la classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique y ajoute :
 tous les genres provenant de la famille Aceraceae :
 Acer, Dipteronia.
 tous les genres provenant de la famille Hippocastanaceae :
 Aesculus, Billia, Handeliodendron.
-Selon Angiosperm Phylogeny Website                        (22 juin 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (22 juin 2010) :
 Acer L.
 Aesculus L.
 Alectryon Gaertn.
@@ -929,7 +989,7 @@
 Xerospermum Blume
 Zanha Hiern
 Zollingeria Kurz
-Selon ITIS      (18 novembre 2016)[6] :
+Selon ITIS      (18 novembre 2016) :
 Acer L.
 Aesculus L.
 Alectryon Gaertn.
@@ -959,7 +1019,7 @@
 Ungnadia Endl.
 Urvillea Kunth
 Xanthoceras Bunge
-Selon NCBI  (22 juin 2010)[7] :
+Selon NCBI  (22 juin 2010) :
 Acer
 Aesculus
 Alectryon
